--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD5D93-7712-4224-A931-0EC729175A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A373B-0B65-4038-BEB4-19EEB8E426DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>辞書形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,32 +146,6 @@
   </si>
   <si>
     <t>連用形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>一段動詞(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,50 +211,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(Ｘるー＞Ｘ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋ます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ます</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>活用語尾(するー＞し)</t>
     </r>
     <r>
@@ -351,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -455,7 +391,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(Ｘるー＞Ｘ)</t>
+      <t>つうる(いちり)ー＞っ</t>
     </r>
     <r>
       <rPr>
@@ -476,108 +412,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>て</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>同上　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>た</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>同上　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>た</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>同上　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>き</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>た</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>つうる(いちり)ー＞っ</t>
+      <t>むぶぬ(みびに)ー＞ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋で
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>く(き)ー＞い</t>
     </r>
     <r>
       <rPr>
@@ -598,7 +454,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>むぶぬ(みびに)ー＞ん</t>
+      <t>ぐ(ぎ)ー＞い</t>
     </r>
     <r>
       <rPr>
@@ -619,7 +475,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>く(き)ー＞い</t>
+      <t>す(し)ー＞し</t>
     </r>
     <r>
       <rPr>
@@ -640,17 +496,40 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ぐ(ぎ)ー＞い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋で
+      <t>いくー＞いっ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋て</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞し)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋ない
 </t>
     </r>
     <r>
@@ -661,7 +540,915 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>す(し)ー＞し</t>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋ない
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞お段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋う
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>う</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞あ(わ)段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋ない
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞し)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋よう
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よう</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋よう
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よう</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役受身形()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ます形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ない(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>あ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ない)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>意志形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>て形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>て)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>た形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>た)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使役形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せる)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞あ(わ)段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋せる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋させる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>させる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">せる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上+た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同上+た　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>た</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同上+た　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>た</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>受身形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れる)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">活用語尾(う段ー＞あ(わ)段)＋れる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">活かつ用よう形けい = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語ご幹かん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">活用語ご尾び </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ 助じょ動どう詞し ／ 助じょ詞し</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋される
+される</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋される
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>される</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一段動詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(るー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(るー＞)</t>
     </r>
     <r>
       <rPr>
@@ -677,35 +1464,61 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>いくー＞いっ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋て</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(Ｘるー＞Ｘ)</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>て</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同上+た　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>た</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(るー＞)</t>
     </r>
     <r>
       <rPr>
@@ -721,7 +1534,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -749,203 +1562,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(するー＞し)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋ない
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ない</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(くるー＞こ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋ない
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ない</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(う段ー＞お段)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋う
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>う</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(う段ー＞あ(わ)段)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋ない
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ない</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(Ｘるー＞Ｘ)</t>
+      <t>活用語尾(るー＞)</t>
     </r>
     <r>
       <rPr>
@@ -961,7 +1578,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -989,313 +1606,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(するー＞し)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋よう
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>よう</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(くるー＞こ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋よう
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>よう</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受身形()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使役受身形()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ます形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ます)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ない(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>あ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ない)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>意志形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>よ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>て形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>て)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>た形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>た)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>使役形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>せる)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(う段ー＞あ(わ)段)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋せる
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>せる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(Ｘるー＞Ｘ)</t>
+      <t>活用語尾(るー＞)</t>
     </r>
     <r>
       <rPr>
@@ -1311,7 +1622,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1339,102 +1650,38 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(くるー＞こ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋させる
+      <t>活用語尾(るー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋される
 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>させる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(するー＞)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">せる
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>せる</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>される</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,7 +1727,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +1764,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1530,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,19 +1791,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1563,10 +1804,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1865,208 +2121,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>30</v>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>41</v>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2083,4 +2347,29 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F42C09-986A-42BC-B0CB-75D8C5C8E2DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="138.58203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8A373B-0B65-4038-BEB4-19EEB8E426DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68BDE0-C172-4A1B-8B0D-4EB71DAD6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>辞書形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,70 +1053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(するー＞)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">せる
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>せる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同上+た</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,30 +1226,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(するー＞)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋される
-される</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>活用語尾(くるー＞こ)</t>
     </r>
     <r>
@@ -1351,27 +1263,63 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>一段動詞(</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>る</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見る</t>
     </r>
     <r>
       <rPr>
@@ -1394,7 +1342,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(るー＞)</t>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1415,17 +1363,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見</t>
+見</t>
     </r>
     <r>
       <rPr>
@@ -1440,15 +1378,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(るー＞)</t>
+    <t>見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1464,7 +1406,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1490,7 +1432,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1518,7 +1460,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(るー＞)</t>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1534,7 +1476,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1562,7 +1504,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(るー＞)</t>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1578,7 +1520,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1606,7 +1548,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(るー＞)</t>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1622,7 +1564,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1650,7 +1592,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>活用語尾(るー＞)</t>
+      <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
       <rPr>
@@ -1666,7 +1608,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1683,6 +1625,106 @@
       </rPr>
       <t>される</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞さ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋せる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>せる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞さ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋れる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1783,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1806,6 +1848,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1821,8 +1866,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2104,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2121,34 +2169,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2157,10 +2205,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2175,10 +2223,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2241,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2213,7 +2261,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -2231,118 +2279,150 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,7 +2434,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2364,8 +2444,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>37</v>
+      <c r="A1" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68BDE0-C172-4A1B-8B0D-4EB71DAD6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0792E57E-20FE-4CC0-8CFF-E4019C7FCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>辞書形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,10 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使役受身形()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>ます形(</t>
     </r>
@@ -1136,8 +1132,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">活用語尾(う段ー＞あ(わ)段)＋れる
-</t>
+      <t xml:space="preserve">活かつ用よう形けい = </t>
     </r>
     <r>
       <rPr>
@@ -1147,42 +1142,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>れる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">活かつ用よう形けい = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>語ご幹かん</t>
     </r>
     <r>
@@ -1214,6 +1173,30 @@
         <charset val="134"/>
       </rPr>
       <t>+ 助じょ動どう詞し ／ 助じょ詞し</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋される
+される</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1636,26 +1619,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(するー＞さ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋せる
-</t>
+    <t>こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使役受身形(</t>
     </r>
     <r>
       <rPr>
@@ -1675,20 +1644,20 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>せる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(するー＞さ)</t>
+      <t>せられる)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞あ(わ)段)</t>
     </r>
     <r>
       <rPr>
@@ -1704,12 +1673,22 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さ</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
     </r>
     <r>
       <rPr>
@@ -1724,7 +1703,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>こ</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞あ(わ)段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋される(せられる)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>される</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋させられる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>させられる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋させられる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>させられる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋させる
+させる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋させられる
+させられる</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,6 +1948,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2155,14 +2345,15 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="32.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.9140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="32.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
@@ -2185,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>5</v>
@@ -2245,13 +2436,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
@@ -2263,13 +2454,13 @@
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -2281,35 +2472,35 @@
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2317,13 +2508,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -2335,13 +2526,13 @@
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -2353,63 +2544,71 @@
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0792E57E-20FE-4CC0-8CFF-E4019C7FCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1259B-6D34-4658-BA64-FD2F9CCD5F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>辞書形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1908,6 +1908,579 @@
       </rPr>
       <t>＋させられる
 させられる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞え段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋ば
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞え段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞え段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋る
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>る</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋れば
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋れば
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋れば
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>仮定形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋ろ・よ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ろ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋しろ・せよ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しろ・せよ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋られる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>られる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋できる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+できる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋られる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>られる</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1959,7 +2532,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2002,6 +2575,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2015,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2060,6 +2645,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2342,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2453,37 +3056,37 @@
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2543,55 +3146,55 @@
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2611,8 +3214,63 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="E2:F2"/>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1259B-6D34-4658-BA64-FD2F9CCD5F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6AA5A-167D-4DFA-8F05-812091A4ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2947,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3291,7 +3291,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6AA5A-167D-4DFA-8F05-812091A4ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53820E5-23BD-4EA9-8E82-9F908B6C88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>五段動詞(</t>
     </r>
@@ -1912,14 +1908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命令形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2331,29 +2319,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
@@ -2482,6 +2447,22 @@
       </rPr>
       <t>られる</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞　どうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2532,7 +2513,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2568,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2600,7 +2587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2626,21 +2613,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2659,10 +2631,28 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2945,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2957,52 +2947,53 @@
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.9140625" style="1" customWidth="1"/>
     <col min="4" max="6" width="32.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="21"/>
+    <col min="8" max="8" width="11.58203125" style="21" customWidth="1"/>
+    <col min="9" max="15" width="8.6640625" style="21"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9"/>
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3017,10 +3008,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9"/>
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3035,239 +3026,321 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
+      <c r="A10" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>64</v>
+      <c r="E16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>69</v>
+      <c r="D17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>72</v>
+      <c r="D18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
+    <row r="19" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A16:A18"/>
@@ -3290,19 +3363,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F42C09-986A-42BC-B0CB-75D8C5C8E2DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="138.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="204.75" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A78E65-BF82-4C7E-95AA-B43261F01AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE03A3E-9BF2-4D84-8C4D-0A8E2D8E6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="動詞" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
-    <t>辞書形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>五段動詞(</t>
     </r>
@@ -131,18 +127,6 @@
   </si>
   <si>
     <t>変格動詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中止形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連体形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連用形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未然形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2413,6 +2393,28 @@
       </rPr>
       <t>いくー＞いっ＋て</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終止形　しゅうしけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連体形　れんたいけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞書形　じしょけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形
+れんようけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形
+みぜんけい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2537,7 +2539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2609,6 +2611,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2893,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2909,265 +2920,265 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>7</v>
+      <c r="A6" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>13</v>
+      <c r="A10" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -3177,52 +3188,52 @@
       <c r="A17" s="18"/>
       <c r="B17" s="23"/>
       <c r="C17" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3306,7 +3317,7 @@
     <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A16:A19"/>
@@ -3341,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DB28A-AC35-4525-80A0-9CA1931803D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE03A3E-9BF2-4D84-8C4D-0A8E2D8E6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DB154-1266-459F-936D-ABE9A4FBB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="動詞" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <r>
       <t>五段動詞(</t>
@@ -2415,6 +2415,431 @@
   <si>
     <t>未然形
 みぜんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>形容詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>形容動詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮定形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けれ(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なら(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かろ(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だろ(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かっ(た)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">く
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くて</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だっ(た)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">に
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>で</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2465,7 +2890,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2526,6 +2951,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2539,7 +2976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2592,6 +3029,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,7 +3042,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2613,13 +3059,22 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2904,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2921,34 +3376,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2957,10 +3412,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
@@ -2975,10 +3430,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>71</v>
       </c>
@@ -2993,7 +3448,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3013,7 +3468,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -3031,7 +3486,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
@@ -3049,7 +3504,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -3065,7 +3520,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3085,7 +3540,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -3103,7 +3558,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -3121,7 +3576,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3594,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -3157,7 +3612,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>31</v>
@@ -3173,20 +3628,20 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="14" t="s">
         <v>63</v>
       </c>
@@ -3201,7 +3656,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
@@ -3219,7 +3674,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -3317,7 +3772,7 @@
     <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A16:A19"/>
@@ -3363,14 +3818,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DB28A-AC35-4525-80A0-9CA1931803D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.58203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="64.58203125" style="1" customWidth="1"/>
+    <col min="4" max="16" width="8.6640625" style="16"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DB154-1266-459F-936D-ABE9A4FBB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61540116-98A5-4C37-81B5-9655E9E15B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <r>
       <t>五段動詞(</t>
@@ -1934,6 +1934,175 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>活用語尾(するー＞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋できる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+できる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動詞　どうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(う段ー＞え段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すれ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くれ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>活用語尾(Xるー＞X)</t>
     </r>
     <r>
@@ -1943,7 +2112,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>＋られる</t>
+      <t>＋ろ・よ</t>
     </r>
     <r>
       <rPr>
@@ -1974,62 +2143,614 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>られる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(するー＞)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋できる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t>ろ・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つうる(いちり)ー＞っ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋て
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>むぶぬ(みびに)ー＞ん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋で
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>く(き)ー＞い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋て
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ぐ(ぎ)ー＞い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋で
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>す(し)ー＞し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">＋て
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>いくー＞いっ＋て</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終止形　しゅうしけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連体形　れんたいけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞書形　じしょけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形
+れんようけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形
+みぜんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>形容詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>形容動詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮定形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-できる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(くるー＞こ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋られる</t>
+寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けれ(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なら(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>さむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かろ(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だろ(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かっ(た)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">く
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くて</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だっ(た)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">に
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋(ら)れる</t>
     </r>
     <r>
       <rPr>
@@ -2050,7 +2771,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>こ</t>
+      <t>見</t>
     </r>
     <r>
       <rPr>
@@ -2065,164 +2786,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動詞　どうし</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令形()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能形()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(う段ー＞え段)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋ば</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>け</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見れ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>すれ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くれ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ば</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(Xるー＞X)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋ろ・よ</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋(ら)れる</t>
     </r>
     <r>
       <rPr>
@@ -2243,145 +2824,49 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ろ・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>よ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>つうる(いちり)ー＞っ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋て
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>むぶぬ(みびに)ー＞ん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋で
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>く(き)ー＞い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋て
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ぐ(ぎ)ー＞い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋で
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>す(し)ー＞し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">＋て
-</t>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>られる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可能形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>る)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名詞(</t>
     </r>
     <r>
       <rPr>
@@ -2391,43 +2876,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>いくー＞いっ＋て</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>終止形　しゅうしけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連体形　れんたいけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞書形　じしょけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連用形
-れんようけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未然形
-みぜんけい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連体形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>終止形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>形容詞(</t>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋の</t>
     </r>
     <r>
       <rPr>
@@ -2437,34 +2912,22 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>形容動詞(</t>
-    </r>
+      <t xml:space="preserve">
+雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2473,43 +2936,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未然形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連用形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仮定形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋だ</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2518,17 +2956,34 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋い</t>
+      <t xml:space="preserve">
+雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だっ(た)</t>
     </r>
     <r>
       <rPr>
@@ -2539,275 +2994,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>い</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>な</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>けれ(ば)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>なら(ば)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>さむ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かろ(う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だろ(う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かっ(た)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">く
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くて</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だっ(た)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-綺麗</t>
+雨</t>
     </r>
     <r>
       <rPr>
@@ -2828,7 +3015,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>綺麗</t>
+      <t>雨</t>
     </r>
     <r>
       <rPr>
@@ -2839,6 +3026,52 @@
         <charset val="134"/>
       </rPr>
       <t>で</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だろ(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なら(ば)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2976,7 +3209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3032,6 +3265,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3059,22 +3307,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3359,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3376,34 +3612,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3412,44 +3648,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="20"/>
+      <c r="A4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>72</v>
+      <c r="A6" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -3468,12 +3704,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>35</v>
@@ -3486,7 +3722,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
@@ -3504,7 +3740,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -3520,8 +3756,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>73</v>
+      <c r="A10" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
@@ -3540,7 +3776,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +3794,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -3576,7 +3812,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3594,7 +3830,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -3612,7 +3848,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>31</v>
@@ -3628,67 +3864,67 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="F19" s="15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3818,63 +4054,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DB28A-AC35-4525-80A0-9CA1931803D6}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.58203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="64.58203125" style="1" customWidth="1"/>
-    <col min="4" max="16" width="8.6640625" style="16"/>
-    <col min="17" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="36.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.4140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.58203125" style="16" customWidth="1"/>
+    <col min="6" max="17" width="8.6640625" style="16"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -3886,43 +4137,36 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:16" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+    <row r="6" spans="1:17" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -3934,17 +4178,18 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61540116-98A5-4C37-81B5-9655E9E15B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15292B6-3946-4645-95CE-39E8A9639D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="動詞" sheetId="1" r:id="rId1"/>
@@ -2579,29 +2579,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>さむ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かろ(う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>綺麗</t>
     </r>
     <r>
@@ -3072,6 +3049,29 @@
         <charset val="134"/>
       </rPr>
       <t>なら(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かろ(う)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3280,6 +3280,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3305,12 +3311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3595,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3612,34 +3612,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3648,10 +3648,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
@@ -3666,10 +3666,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
@@ -3684,7 +3684,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3704,7 +3704,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
@@ -3756,7 +3756,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -3812,7 +3812,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>31</v>
@@ -3864,20 +3864,20 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="14" t="s">
         <v>60</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="2" t="s">
         <v>58</v>
       </c>
@@ -3910,21 +3910,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DB28A-AC35-4525-80A0-9CA1931803D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4079,7 +4079,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -4089,12 +4089,12 @@
       <c r="B2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -4104,12 +4104,12 @@
       <c r="B3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
@@ -4117,14 +4117,14 @@
         <v>76</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -4144,13 +4144,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>

--- a/语法/日语活用.xlsx
+++ b/语法/日语活用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15292B6-3946-4645-95CE-39E8A9639D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19A5A4-8D53-4591-8A43-F5D434A6C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="動詞" sheetId="1" r:id="rId1"/>
@@ -2403,6 +2403,164 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(Xるー＞X)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋(ら)れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>られる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活用語尾(くるー＞こ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋(ら)れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>られる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可能形(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>る)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名詞(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei UI"/>
         <family val="2"/>
@@ -2419,6 +2577,255 @@
         <charset val="134"/>
       </rPr>
       <t>＋い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>語幹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>だ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かっ(た)</t>
     </r>
     <r>
       <rPr>
@@ -2439,23 +2846,65 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>い</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋な</t>
+      <t xml:space="preserve">く
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だっ(た)</t>
     </r>
     <r>
       <rPr>
@@ -2476,214 +2925,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>な</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>けれ(ば)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>なら(ば)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だろ(う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かっ(た)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">く
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>くて</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だっ(た)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-綺麗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">に
 </t>
     </r>
@@ -2705,181 +2946,34 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>で</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(Xるー＞X)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋(ら)れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">で
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>られる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活用語尾(くるー＞こ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋(ら)れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>こ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>られる</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可能形(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>れ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>る)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名詞(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>雨</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋の</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だっ(た)</t>
     </r>
     <r>
       <rPr>
@@ -2900,87 +2994,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>の</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>語幹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-雨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>雨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だっ(た)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-雨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">に
 </t>
     </r>
@@ -3002,76 +3015,216 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>で</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
+      <t xml:space="preserve">で
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
       </rPr>
       <t>雨</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>だろ(う)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>かろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>だろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
       </rPr>
       <t>雨</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>なら(ば)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>だろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(う)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
       </rPr>
       <t>寒</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>かろ(う)</t>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>けれ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>綺麗</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>なら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ば)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>雨</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>なら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ば)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3080,7 +3233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3121,6 +3274,26 @@
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3209,7 +3382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3312,6 +3485,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3595,11 +3774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
@@ -3611,7 +3790,7 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" customHeight="1">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="26" t="s">
@@ -3621,7 +3800,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="26" t="s">
@@ -3635,7 +3814,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="26"/>
@@ -3647,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
         <v>66</v>
       </c>
@@ -3665,7 +3844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>67</v>
       </c>
@@ -3683,7 +3862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="48" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>69</v>
       </c>
@@ -3703,7 +3882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="100" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
@@ -3721,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
         <v>19</v>
@@ -3739,7 +3918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3755,7 +3934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="48" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>70</v>
       </c>
@@ -3775,7 +3954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="48" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>17</v>
@@ -3793,7 +3972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="48" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
         <v>20</v>
@@ -3811,7 +3990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="48" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
@@ -3829,7 +4008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="56.5" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
@@ -3847,7 +4026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
@@ -3863,7 +4042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="33" t="s">
         <v>53</v>
@@ -3875,7 +4054,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="24" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="33"/>
       <c r="C17" s="14" t="s">
@@ -3891,7 +4070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="48" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="2" t="s">
         <v>58</v>
@@ -3909,106 +4088,106 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="48" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" s="16" customFormat="1"/>
+    <row r="21" spans="1:6" s="16" customFormat="1"/>
+    <row r="22" spans="1:6" s="16" customFormat="1"/>
+    <row r="23" spans="1:6" s="16" customFormat="1"/>
+    <row r="24" spans="1:6" s="16" customFormat="1"/>
+    <row r="25" spans="1:6" s="16" customFormat="1"/>
+    <row r="26" spans="1:6" s="16" customFormat="1"/>
+    <row r="27" spans="1:6" s="16" customFormat="1"/>
+    <row r="28" spans="1:6" s="16" customFormat="1"/>
+    <row r="29" spans="1:6" s="16" customFormat="1"/>
+    <row r="30" spans="1:6" s="16" customFormat="1"/>
+    <row r="31" spans="1:6" s="16" customFormat="1"/>
+    <row r="32" spans="1:6" s="16" customFormat="1"/>
+    <row r="33" s="16" customFormat="1"/>
+    <row r="34" s="16" customFormat="1"/>
+    <row r="35" s="16" customFormat="1"/>
+    <row r="36" s="16" customFormat="1"/>
+    <row r="37" s="16" customFormat="1"/>
+    <row r="38" s="16" customFormat="1"/>
+    <row r="39" s="16" customFormat="1"/>
+    <row r="40" s="16" customFormat="1"/>
+    <row r="41" s="16" customFormat="1"/>
+    <row r="42" s="16" customFormat="1"/>
+    <row r="43" s="16" customFormat="1"/>
+    <row r="44" s="16" customFormat="1"/>
+    <row r="45" s="16" customFormat="1"/>
+    <row r="46" s="16" customFormat="1"/>
+    <row r="47" s="16" customFormat="1"/>
+    <row r="48" s="16" customFormat="1"/>
+    <row r="49" s="16" customFormat="1"/>
+    <row r="50" s="16" customFormat="1"/>
+    <row r="51" s="16" customFormat="1"/>
+    <row r="52" s="16" customFormat="1"/>
+    <row r="53" s="16" customFormat="1"/>
+    <row r="54" s="16" customFormat="1"/>
+    <row r="55" s="16" customFormat="1"/>
+    <row r="56" s="16" customFormat="1"/>
+    <row r="57" s="16" customFormat="1"/>
+    <row r="58" s="16" customFormat="1"/>
+    <row r="59" s="16" customFormat="1"/>
+    <row r="60" s="16" customFormat="1"/>
+    <row r="61" s="16" customFormat="1"/>
+    <row r="62" s="16" customFormat="1"/>
+    <row r="63" s="16" customFormat="1"/>
+    <row r="64" s="16" customFormat="1"/>
+    <row r="65" s="16" customFormat="1"/>
+    <row r="66" s="16" customFormat="1"/>
+    <row r="67" s="16" customFormat="1"/>
+    <row r="68" s="16" customFormat="1"/>
+    <row r="69" s="16" customFormat="1"/>
+    <row r="70" s="16" customFormat="1"/>
+    <row r="71" s="16" customFormat="1"/>
+    <row r="72" s="16" customFormat="1"/>
+    <row r="73" s="16" customFormat="1"/>
+    <row r="74" s="16" customFormat="1"/>
+    <row r="75" s="16" customFormat="1"/>
+    <row r="76" s="16" customFormat="1"/>
+    <row r="77" s="16" customFormat="1"/>
+    <row r="78" s="16" customFormat="1"/>
+    <row r="79" s="16" customFormat="1"/>
+    <row r="80" s="16" customFormat="1"/>
+    <row r="81" s="16" customFormat="1"/>
+    <row r="82" s="16" customFormat="1"/>
+    <row r="83" s="16" customFormat="1"/>
+    <row r="84" s="16" customFormat="1"/>
+    <row r="85" s="16" customFormat="1"/>
+    <row r="86" s="16" customFormat="1"/>
+    <row r="87" s="16" customFormat="1"/>
+    <row r="88" s="16" customFormat="1"/>
+    <row r="89" s="16" customFormat="1"/>
+    <row r="90" s="16" customFormat="1"/>
+    <row r="91" s="16" customFormat="1"/>
+    <row r="92" s="16" customFormat="1"/>
+    <row r="93" s="16" customFormat="1"/>
+    <row r="94" s="16" customFormat="1"/>
+    <row r="95" s="16" customFormat="1"/>
+    <row r="96" s="16" customFormat="1"/>
+    <row r="97" s="16" customFormat="1"/>
+    <row r="98" s="16" customFormat="1"/>
+    <row r="99" s="16" customFormat="1"/>
+    <row r="100" s="16" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A16:A19"/>
@@ -4035,13 +4214,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="204.75" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="48" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -4056,11 +4235,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9DB28A-AC35-4525-80A0-9CA1931803D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="36.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="1.4140625" style="16" customWidth="1"/>
@@ -4070,7 +4249,7 @@
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="18"/>
       <c r="B1" s="2" t="s">
         <v>73</v>
@@ -4079,52 +4258,52 @@
         <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="36" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="36" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="64" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -4139,33 +4318,33 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="36" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
+      <c r="B5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="21" customFormat="1" ht="36" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>81</v>
+      <c r="B6" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="36" t="s">
         <v>94</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -4180,31 +4359,31 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="9" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="10" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="11" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="12" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="13" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="14" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="15" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="16" spans="1:17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="17" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="18" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="19" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="20" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="21" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="22" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="23" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="24" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="25" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="26" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="27" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="28" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="29" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="30" s="16" customFormat="1" ht="36" customHeight="1"/>
+    <row r="31" ht="36" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
